--- a/data/pca/factorExposure/factorExposure_2013-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-4.201237362337181e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001936942152949183</v>
+      </c>
+      <c r="C2">
+        <v>-0.03331995690414285</v>
+      </c>
+      <c r="D2">
+        <v>-0.001419557650037458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001690908928567339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005956751864502479</v>
+      </c>
+      <c r="C4">
+        <v>-0.08530858546759477</v>
+      </c>
+      <c r="D4">
+        <v>0.0796375688119921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0005487905982989985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01352358587886228</v>
+      </c>
+      <c r="C6">
+        <v>-0.1129731026191272</v>
+      </c>
+      <c r="D6">
+        <v>0.03083340941027945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001993163274463609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004670005731647019</v>
+      </c>
+      <c r="C7">
+        <v>-0.05591284985912581</v>
+      </c>
+      <c r="D7">
+        <v>0.0308080947678925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002403805623562028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005666105573271465</v>
+      </c>
+      <c r="C8">
+        <v>-0.03881357144626407</v>
+      </c>
+      <c r="D8">
+        <v>0.03988114630759253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003669644585539392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004045987359989152</v>
+      </c>
+      <c r="C9">
+        <v>-0.0714111615863602</v>
+      </c>
+      <c r="D9">
+        <v>0.07083766019856208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.00462489966929846</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005219129622623319</v>
+      </c>
+      <c r="C10">
+        <v>-0.05883634056315175</v>
+      </c>
+      <c r="D10">
+        <v>-0.2040773382567687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002673309061268167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005304904920025577</v>
+      </c>
+      <c r="C11">
+        <v>-0.08126893125215798</v>
+      </c>
+      <c r="D11">
+        <v>0.05871879597848036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000314399791562452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003901193999781631</v>
+      </c>
+      <c r="C12">
+        <v>-0.06483314992277946</v>
+      </c>
+      <c r="D12">
+        <v>0.04466422854044808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003659221809190885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008438152185461855</v>
+      </c>
+      <c r="C13">
+        <v>-0.06660808018526353</v>
+      </c>
+      <c r="D13">
+        <v>0.06540294812666329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001099605720851744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001359540085885453</v>
+      </c>
+      <c r="C14">
+        <v>-0.04574127944761302</v>
+      </c>
+      <c r="D14">
+        <v>0.00859114515063554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001090845354971077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005795361094659206</v>
+      </c>
+      <c r="C15">
+        <v>-0.04160161118444571</v>
+      </c>
+      <c r="D15">
+        <v>0.03125214300435186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001211029933665534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004900616684543529</v>
+      </c>
+      <c r="C16">
+        <v>-0.06667817420909494</v>
+      </c>
+      <c r="D16">
+        <v>0.0447297093484106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002363156899100063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008781194190692143</v>
+      </c>
+      <c r="C20">
+        <v>-0.06815591062906357</v>
+      </c>
+      <c r="D20">
+        <v>0.04803065486818072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005332376755694741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009801494983471406</v>
+      </c>
+      <c r="C21">
+        <v>-0.02328118034282373</v>
+      </c>
+      <c r="D21">
+        <v>0.03504783320958921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01783823080574204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006986555908742249</v>
+      </c>
+      <c r="C22">
+        <v>-0.09473361224407416</v>
+      </c>
+      <c r="D22">
+        <v>0.101601160416409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01815912168827069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006801484759399525</v>
+      </c>
+      <c r="C23">
+        <v>-0.09561416942364238</v>
+      </c>
+      <c r="D23">
+        <v>0.1019702618011627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001794331538899756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005021701859387543</v>
+      </c>
+      <c r="C24">
+        <v>-0.07592864402194452</v>
+      </c>
+      <c r="D24">
+        <v>0.05755050097000342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003642184943636893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002725537454047705</v>
+      </c>
+      <c r="C25">
+        <v>-0.07887162638294141</v>
+      </c>
+      <c r="D25">
+        <v>0.06396789176161752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005936663949279193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003446359520803108</v>
+      </c>
+      <c r="C26">
+        <v>-0.04197443716882263</v>
+      </c>
+      <c r="D26">
+        <v>0.02605555579074853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004512036784755683</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001121963592374911</v>
+      </c>
+      <c r="C28">
+        <v>-0.1067813945657281</v>
+      </c>
+      <c r="D28">
+        <v>-0.3185500435814473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0009018985965657345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002952172628897951</v>
+      </c>
+      <c r="C29">
+        <v>-0.04887372061366464</v>
+      </c>
+      <c r="D29">
+        <v>0.002302373193921406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003160159149406488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008918529124726692</v>
+      </c>
+      <c r="C30">
+        <v>-0.1454489600260782</v>
+      </c>
+      <c r="D30">
+        <v>0.09935156198828229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002642330676773442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006060845904114228</v>
+      </c>
+      <c r="C31">
+        <v>-0.04561687216389587</v>
+      </c>
+      <c r="D31">
+        <v>0.03170914907095391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006092497946148251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003835900288006258</v>
+      </c>
+      <c r="C32">
+        <v>-0.04028288272746441</v>
+      </c>
+      <c r="D32">
+        <v>0.02309578225427458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002835671074298547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007888782928821112</v>
+      </c>
+      <c r="C33">
+        <v>-0.08700684480251945</v>
+      </c>
+      <c r="D33">
+        <v>0.07040482037257914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004295402103703111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003707678675585966</v>
+      </c>
+      <c r="C34">
+        <v>-0.05863392387131703</v>
+      </c>
+      <c r="D34">
+        <v>0.04673188061333312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002535946699370281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004707229124245559</v>
+      </c>
+      <c r="C35">
+        <v>-0.03974115849532147</v>
+      </c>
+      <c r="D35">
+        <v>0.0127411486229887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00399703497214827</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001410555823966513</v>
+      </c>
+      <c r="C36">
+        <v>-0.02511307796681941</v>
+      </c>
+      <c r="D36">
+        <v>0.0211986939318369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00238008763746822</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009437315818241311</v>
+      </c>
+      <c r="C38">
+        <v>-0.03419498315380513</v>
+      </c>
+      <c r="D38">
+        <v>0.02128448369579774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01244319443012618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001056555224880363</v>
+      </c>
+      <c r="C39">
+        <v>-0.1179160081852975</v>
+      </c>
+      <c r="D39">
+        <v>0.07224196321994271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009356844406013837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001974952624983569</v>
+      </c>
+      <c r="C40">
+        <v>-0.08854961580703639</v>
+      </c>
+      <c r="D40">
+        <v>0.00978802717575219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.000314107210261598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007115125305853098</v>
+      </c>
+      <c r="C41">
+        <v>-0.03780342214428523</v>
+      </c>
+      <c r="D41">
+        <v>0.03484005601318448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003176749630315848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003470331268861101</v>
+      </c>
+      <c r="C43">
+        <v>-0.05160371607129281</v>
+      </c>
+      <c r="D43">
+        <v>0.02341720573592884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002672979789209911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003053715250052742</v>
+      </c>
+      <c r="C44">
+        <v>-0.1128628331939996</v>
+      </c>
+      <c r="D44">
+        <v>0.06989473965977418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001603059133873929</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002281817245603922</v>
+      </c>
+      <c r="C46">
+        <v>-0.03592450398785704</v>
+      </c>
+      <c r="D46">
+        <v>0.02678596965890327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002138470878733327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00263439243037115</v>
+      </c>
+      <c r="C47">
+        <v>-0.03760152214828356</v>
+      </c>
+      <c r="D47">
+        <v>0.02504588108874525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003250690358259696</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006355011023257405</v>
+      </c>
+      <c r="C48">
+        <v>-0.02945197507429367</v>
+      </c>
+      <c r="D48">
+        <v>0.03185877945050188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01318514674102419</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01452347296885188</v>
+      </c>
+      <c r="C49">
+        <v>-0.182544921883806</v>
+      </c>
+      <c r="D49">
+        <v>0.01119331879672072</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001366005951428791</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003478987670420877</v>
+      </c>
+      <c r="C50">
+        <v>-0.04405613985158975</v>
+      </c>
+      <c r="D50">
+        <v>0.03505276943959078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003375567510593957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004266068477981834</v>
+      </c>
+      <c r="C51">
+        <v>-0.02498359323669792</v>
+      </c>
+      <c r="D51">
+        <v>0.02088670207511187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001049908442163106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0201696405829441</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698530945435292</v>
+      </c>
+      <c r="D53">
+        <v>0.03516040778526863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0009933911241230124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008635821994519345</v>
+      </c>
+      <c r="C54">
+        <v>-0.05624429712374752</v>
+      </c>
+      <c r="D54">
+        <v>0.04173059115543515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003552803535066178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009280586768207132</v>
+      </c>
+      <c r="C55">
+        <v>-0.1105890370344814</v>
+      </c>
+      <c r="D55">
+        <v>0.04364633599893872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003651007270779152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01966678442681607</v>
+      </c>
+      <c r="C56">
+        <v>-0.1763922496169844</v>
+      </c>
+      <c r="D56">
+        <v>0.03698514183531115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007020048679824454</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01921295691579616</v>
+      </c>
+      <c r="C58">
+        <v>-0.1080878639064625</v>
+      </c>
+      <c r="D58">
+        <v>0.05363431064764044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006173420852336796</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009039549270308001</v>
+      </c>
+      <c r="C59">
+        <v>-0.1581410270115082</v>
+      </c>
+      <c r="D59">
+        <v>-0.3051250929933207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003826999924187025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02319153957900307</v>
+      </c>
+      <c r="C60">
+        <v>-0.2233544191806754</v>
+      </c>
+      <c r="D60">
+        <v>0.02322548879340065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01435355998754831</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002093941134553362</v>
+      </c>
+      <c r="C61">
+        <v>-0.09613363174337457</v>
+      </c>
+      <c r="D61">
+        <v>0.05672886466349403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1700148504316182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1440729718964748</v>
+      </c>
+      <c r="C62">
+        <v>-0.08890645032729623</v>
+      </c>
+      <c r="D62">
+        <v>0.04507021853784236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0009017564378619166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006148991686874744</v>
+      </c>
+      <c r="C63">
+        <v>-0.05699505004145975</v>
+      </c>
+      <c r="D63">
+        <v>0.02535996684702438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00490262766881648</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01474731785186741</v>
+      </c>
+      <c r="C64">
+        <v>-0.1051726826632749</v>
+      </c>
+      <c r="D64">
+        <v>0.05842403722696601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002480388545016827</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01718435732331593</v>
+      </c>
+      <c r="C65">
+        <v>-0.1207255677475376</v>
+      </c>
+      <c r="D65">
+        <v>0.0151365439257441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007514231536194577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01226423723306372</v>
+      </c>
+      <c r="C66">
+        <v>-0.160401571407589</v>
+      </c>
+      <c r="D66">
+        <v>0.1110532533875718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003853500028776533</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01549667977513533</v>
+      </c>
+      <c r="C67">
+        <v>-0.06501647503314223</v>
+      </c>
+      <c r="D67">
+        <v>0.02990697035354903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006201368371550352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000527612215854047</v>
+      </c>
+      <c r="C68">
+        <v>-0.08666228726173818</v>
+      </c>
+      <c r="D68">
+        <v>-0.2513469638542739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002894440895466042</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005882481160537106</v>
+      </c>
+      <c r="C69">
+        <v>-0.05157559779092469</v>
+      </c>
+      <c r="D69">
+        <v>0.03749083620185174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-9.797409945664596e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001793858079665466</v>
+      </c>
+      <c r="C70">
+        <v>-0.002567163863758245</v>
+      </c>
+      <c r="D70">
+        <v>0.0003247889466520162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004093217354839358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005767244035469809</v>
+      </c>
+      <c r="C71">
+        <v>-0.09717407230271476</v>
+      </c>
+      <c r="D71">
+        <v>-0.2980556621195471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.0046012994485532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01537467813109173</v>
+      </c>
+      <c r="C72">
+        <v>-0.1496379316527899</v>
+      </c>
+      <c r="D72">
+        <v>0.02209327036393726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01191918197237295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02912887018643249</v>
+      </c>
+      <c r="C73">
+        <v>-0.2762902972563977</v>
+      </c>
+      <c r="D73">
+        <v>0.04905558308388354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.00448171602985301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00129368878572626</v>
+      </c>
+      <c r="C74">
+        <v>-0.1054673180458113</v>
+      </c>
+      <c r="D74">
+        <v>0.03695089872638907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002221842021456654</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01066657780253452</v>
+      </c>
+      <c r="C75">
+        <v>-0.1311507273933829</v>
+      </c>
+      <c r="D75">
+        <v>0.02402714736313414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009640671518903604</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02117506058843853</v>
+      </c>
+      <c r="C76">
+        <v>-0.1514014797252868</v>
+      </c>
+      <c r="D76">
+        <v>0.06297936085989742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001618181339977079</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02401013165297926</v>
+      </c>
+      <c r="C77">
+        <v>-0.1344856845109348</v>
+      </c>
+      <c r="D77">
+        <v>0.05725537181403235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0009666311596355403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01420847388619102</v>
+      </c>
+      <c r="C78">
+        <v>-0.09560238209616752</v>
+      </c>
+      <c r="D78">
+        <v>0.06786694613065641</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02446099696985917</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03692688160443</v>
+      </c>
+      <c r="C79">
+        <v>-0.15745834352772</v>
+      </c>
+      <c r="D79">
+        <v>0.03143750599173707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004856134111080447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01048718089492674</v>
+      </c>
+      <c r="C80">
+        <v>-0.04315512384080014</v>
+      </c>
+      <c r="D80">
+        <v>0.02996196282178023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0007836620020331917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0146478657210537</v>
+      </c>
+      <c r="C81">
+        <v>-0.1289688350174878</v>
+      </c>
+      <c r="D81">
+        <v>0.04207018879162832</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005823408528605722</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01953084038354999</v>
+      </c>
+      <c r="C82">
+        <v>-0.1459672349682478</v>
+      </c>
+      <c r="D82">
+        <v>0.04007367369996113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009061980530388125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009967151836505685</v>
+      </c>
+      <c r="C83">
+        <v>-0.05769413046979155</v>
+      </c>
+      <c r="D83">
+        <v>0.05295379668986747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01291243092221292</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01155071935230524</v>
+      </c>
+      <c r="C84">
+        <v>-0.03791333440306673</v>
+      </c>
+      <c r="D84">
+        <v>-0.01053186257882747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01588692890986039</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02776066274419419</v>
+      </c>
+      <c r="C85">
+        <v>-0.1307841864560048</v>
+      </c>
+      <c r="D85">
+        <v>0.04435351970478166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001072521208901506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005278676885000282</v>
+      </c>
+      <c r="C86">
+        <v>-0.0487805508745196</v>
+      </c>
+      <c r="D86">
+        <v>0.02086396166842529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004961796589189826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01026732161722158</v>
+      </c>
+      <c r="C87">
+        <v>-0.1338542594722743</v>
+      </c>
+      <c r="D87">
+        <v>0.06426084505388387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01296375525648764</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003072391751860086</v>
+      </c>
+      <c r="C88">
+        <v>-0.06767158001831049</v>
+      </c>
+      <c r="D88">
+        <v>0.009511146459971075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01438979588082777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001905384364560032</v>
+      </c>
+      <c r="C89">
+        <v>-0.1444323826469523</v>
+      </c>
+      <c r="D89">
+        <v>-0.3528039811162048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002382210319085723</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006704522576480868</v>
+      </c>
+      <c r="C90">
+        <v>-0.1207637374740745</v>
+      </c>
+      <c r="D90">
+        <v>-0.3224050406349928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001164275905758377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01014098194239812</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033990286973224</v>
+      </c>
+      <c r="D91">
+        <v>0.02181903500812175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00830294834062438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0002322210219643009</v>
+      </c>
+      <c r="C92">
+        <v>-0.1336760026901656</v>
+      </c>
+      <c r="D92">
+        <v>-0.3348358362222219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001748744083560953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004626656661808206</v>
+      </c>
+      <c r="C93">
+        <v>-0.1044820888223155</v>
+      </c>
+      <c r="D93">
+        <v>-0.3168605787002046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004490871545435422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02222649320477306</v>
+      </c>
+      <c r="C94">
+        <v>-0.1542544582218085</v>
+      </c>
+      <c r="D94">
+        <v>0.04693109388400732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004686812496963531</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01602732181726986</v>
+      </c>
+      <c r="C95">
+        <v>-0.1279047970469555</v>
+      </c>
+      <c r="D95">
+        <v>0.06094568409221802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001499299658551144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03397768433638737</v>
+      </c>
+      <c r="C97">
+        <v>-0.1913795631378344</v>
+      </c>
+      <c r="D97">
+        <v>0.004714105892597705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003791865142988921</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03569841673974292</v>
+      </c>
+      <c r="C98">
+        <v>-0.2476951295892098</v>
+      </c>
+      <c r="D98">
+        <v>0.05157670399614039</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835146510580204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827366373806723</v>
+      </c>
+      <c r="C99">
+        <v>0.1117474087765516</v>
+      </c>
+      <c r="D99">
+        <v>-0.02707228479651568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0008534990851190947</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00299700620776589</v>
+      </c>
+      <c r="C101">
+        <v>-0.04890295718873097</v>
+      </c>
+      <c r="D101">
+        <v>0.002775029577013876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
